--- a/biology/Histoire de la zoologie et de la botanique/Klaus_Kubitzki/Klaus_Kubitzki.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Klaus_Kubitzki/Klaus_Kubitzki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Klaus Kubitzki, né le 3 mai 1933 et mort le 5 décembre 2022[1], est un botaniste allemand. Il est professeur émérite à l'Herbarium Hamburgense de l'Université de Hambourg. Il est connu pour son travail sur la systématique et la biogéographie des angiospermes, particulièrement ceux du Néotropique, ainsi que pour son inventaire floristique de l'ère Tertiaire[2]. Son œuvre systématique constitue le Système de Kubitzki[3]. Il est membre de l'American Society of Plant Taxonomists (en)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klaus Kubitzki, né le 3 mai 1933 et mort le 5 décembre 2022, est un botaniste allemand. Il est professeur émérite à l'Herbarium Hamburgense de l'Université de Hambourg. Il est connu pour son travail sur la systématique et la biogéographie des angiospermes, particulièrement ceux du Néotropique, ainsi que pour son inventaire floristique de l'ère Tertiaire. Son œuvre systématique constitue le Système de Kubitzki. Il est membre de l'American Society of Plant Taxonomists (en).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Niesky, en Saxe, Kubitzki a suivi des études de biologie et de géologie dans les Universités d'Innsbruck, Goettingen et Kiel. Il a passé un doctorat sur l'ère Quaternaire à l'université de Kiel en 1960. Il est ensuite devenu professeur associé à l'Université australe du Chili à Valdivia, dans le sud du Chili (1961–1963). Il a repris ses études à l'Université de Münster (1968), puis est devenu lecteur à l'Université de Munich. Il a ensuite été professeur de systématique botanique à l'Université de Hambourg (1973-1998)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Niesky, en Saxe, Kubitzki a suivi des études de biologie et de géologie dans les Universités d'Innsbruck, Goettingen et Kiel. Il a passé un doctorat sur l'ère Quaternaire à l'université de Kiel en 1960. Il est ensuite devenu professeur associé à l'Université australe du Chili à Valdivia, dans le sud du Chili (1961–1963). Il a repris ses études à l'Université de Münster (1968), puis est devenu lecteur à l'Université de Munich. Il a ensuite été professeur de systématique botanique à l'Université de Hambourg (1973-1998).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kubitzki a notamment travaillé sur la taxonomie, la phytogéographie et la géoécologie. Il a fait une importante étude sur le plateau des Guyanes. Son œuvre taxonomique est publiée dans The Families and Genera of Vascular Plants (1990-)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kubitzki a notamment travaillé sur la taxonomie, la phytogéographie et la géoécologie. Il a fait une importante étude sur le plateau des Guyanes. Son œuvre taxonomique est publiée dans The Families and Genera of Vascular Plants (1990-).
 </t>
         </is>
       </c>
@@ -573,14 +589,50 @@
           <t>Publications choisies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Carlos Toledo Rizzini, Klaus Kubitzki, Ghillean T. Prance. 1982a. Lorenthaceae. Volumes 2 &amp; 4 of Flora de Venezuela. Inst. Botanico
 Klaus Kubitzki, Susanne Renner. 1982b. Lauraceae I (Aniba &amp; Aiouea). No. 31 of Flora neotropica monograph. Volume 1 de Lauraceae. New York Botanical Garden, 125 pp.  (ISBN 0893272442)
 Bronwen Gates, Klaus Kubitzki, Leslie R. Landrum, Terence D. Pennington, hans-helmut Poppendieck, susanne s. Renner, rolf Singer. 1981. 27. Cochlospermaceae. Organization for Flora Neotropica. New York Botanical Garden,  (ISBN 0893272450)
-Flowering Plants : Evolution and classification of higher categories. Symposium, Hamburg, September 8–12, 1976. Plant Systematics &amp; Evolution : Supplementum 1, Vienne, Springer, 1977, 416 p. (ISBN 978-3-211-81434-5, lire en ligne)
-The Families and Genera of Vascular Plants (Springer-Verlag, Berlin)
-1. Kramer, K.U., Green, P. Pteridophytes and gymnosperms. 1990. 404 pp.  (ISBN 3540517944)
+Flowering Plants : Evolution and classification of higher categories. Symposium, Hamburg, September 8–12, 1976. Plant Systematics &amp; Evolution : Supplementum 1, Vienne, Springer, 1977, 416 p. (ISBN 978-3-211-81434-5, lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Klaus_Kubitzki</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Klaus_Kubitzki</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications choisies</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>The Families and Genera of Vascular Plants (Springer-Verlag, Berlin)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1. Kramer, K.U., Green, P. Pteridophytes and gymnosperms. 1990. 404 pp.  (ISBN 3540517944)
 2. (en) The Families and Genera of Vascular Plants. II Flowering plants : Dicotyledons. Magnoliid, Hamamelid and Caryophyllid families, Berlin, Springer, 1993, 653 p. (ISBN 3-540-55509-9, lire en ligne)
 3. (en) The families and genera of vascular plants. Vol. 3. Flowering plants. Monocotyledons: Lilianae (except Orchidaceae), Berlin, Germany, Springer-Verlag, 1998, 478 p. (ISBN 3-540-64060-6, lire en ligne)
 4. The families and genera of vascular plants. Vol. IV. Flowering Plants. Monocotyledons: Alismatanae and Commelinanae (except Gramineae), Berlin Heidelberg, Springer Science &amp; Business Media, 1998, 511 p. (ISBN 978-3-662-03531-3, DOI 10.1007/978-3-662-03531-3, lire en ligne)
@@ -596,37 +648,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Klaus_Kubitzki</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Klaus_Kubitzki</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Genre
-(Lauraceae) Kubitzkia (en) van der Werff[6]
+(Lauraceae) Kubitzkia (en) van der Werff
 Espèces
-(Asteraceae) Mikania kubitzkii R.M.King &amp; H.Rob.[7]
-(Dilleniaceae) Davilla kubitzkii Aymard[8]</t>
+(Asteraceae) Mikania kubitzkii R.M.King &amp; H.Rob.
+(Dilleniaceae) Davilla kubitzkii Aymard</t>
         </is>
       </c>
     </row>
